--- a/data/trans_bre/P1421-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1421-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.979501054348017</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.743088022359959</v>
+        <v>4.743088022359958</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4987796700701146</v>
@@ -649,7 +649,7 @@
         <v>1.711971138826032</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1.05868149078731</v>
+        <v>1.058681490787309</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.826464619118511</v>
+        <v>-0.7161279980855247</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.063976436261277</v>
+        <v>4.252916462128446</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.276754208448137</v>
+        <v>1.066519892549292</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.553982307441053</v>
+        <v>2.102753183473495</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3829709253687777</v>
+        <v>-0.3496309701585839</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>2.140121033478924</v>
+        <v>2.407074537273719</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3757528326276919</v>
+        <v>0.2955841200689238</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4379889317529806</v>
+        <v>0.3332787196493489</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.294765350198737</v>
+        <v>2.117729014955533</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.587385130085838</v>
+        <v>8.51064248793301</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.930066739126389</v>
+        <v>4.958451742822751</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.157796512674726</v>
+        <v>6.998688087241424</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.367318284476431</v>
+        <v>2.406548319856735</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>15.88106953632029</v>
+        <v>18.05365861255891</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4.582395753900268</v>
+        <v>5.31551676225523</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.203903915290054</v>
+        <v>2.006217700993409</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9408921032590488</v>
+        <v>0.8880248156429522</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.286516379521951</v>
+        <v>2.267697173860575</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.45074268548118</v>
+        <v>3.52161619227472</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.858624470566918</v>
+        <v>3.784001047058707</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.233596438811124</v>
+        <v>0.2256847932069032</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.288450087357731</v>
+        <v>1.365064160237521</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>2.274967186889536</v>
+        <v>2.263140762038176</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.7938684328155815</v>
+        <v>0.7331479178603983</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.492298423916115</v>
+        <v>4.335007730951921</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.19449067874366</v>
+        <v>5.260546049812059</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.647225213631796</v>
+        <v>6.84491677866677</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.722930302881082</v>
+        <v>7.784668671448697</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.406430239724056</v>
+        <v>2.282952378406634</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>8.302406748234295</v>
+        <v>10.52075349195717</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>12.18988497241772</v>
+        <v>11.2063638978146</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.622702454876585</v>
+        <v>2.768326861244317</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.509661330122233</v>
+        <v>2.542697343396921</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.198006035786043</v>
+        <v>2.438276643847106</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.801510008119869</v>
+        <v>1.66123436905396</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.030323765778023</v>
+        <v>6.376697855447293</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8254673914950592</v>
+        <v>0.8300128974036147</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9590115357176665</v>
+        <v>1.172706215494759</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7027562327617791</v>
+        <v>0.5563135355015829</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1.048700466817721</v>
+        <v>1.082921391280804</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.825320554335662</v>
+        <v>6.725660672550863</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.072617168725832</v>
+        <v>6.34713121424437</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.444120375562647</v>
+        <v>5.174536647299045</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.62329574695215</v>
+        <v>11.74502286895031</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.412190237176066</v>
+        <v>4.98967239163171</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>9.94892164831213</v>
+        <v>11.67717569583559</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>6.794367120451057</v>
+        <v>5.782121502077232</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>3.571600340500832</v>
+        <v>3.429559734308814</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.834652254140501</v>
+        <v>2.698331727354423</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.852769561982753</v>
+        <v>1.693436959786959</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.80087478607516</v>
+        <v>2.733248861249572</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.714488861959546</v>
+        <v>4.905313994872563</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7009664812651708</v>
+        <v>0.679248346343408</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7838152763305953</v>
+        <v>0.7226058318926151</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.17076932349325</v>
+        <v>1.061627540198598</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.6788704122853698</v>
+        <v>0.7073286898476904</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.938586863316354</v>
+        <v>6.828583183323983</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.783797569269228</v>
+        <v>4.802105296565106</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.382080601253504</v>
+        <v>6.43619402996962</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.621524343432359</v>
+        <v>9.824363207320689</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.05348846922934</v>
+        <v>3.049247658350238</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.028764981854862</v>
+        <v>4.270564218307588</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6.038462771433883</v>
+        <v>6.011357663991585</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.336691425117832</v>
+        <v>2.3863539326619</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.082477248479535</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.785681299856648</v>
+        <v>6.785681299856651</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.408251630538734</v>
@@ -1049,7 +1049,7 @@
         <v>2.894470558639184</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.493821638293782</v>
+        <v>1.493821638293783</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.447970098363352</v>
+        <v>2.423151167320943</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.394476592198504</v>
+        <v>3.328112150210438</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.200146506489047</v>
+        <v>3.181142740535169</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.620772240123621</v>
+        <v>5.596683857670957</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8789519741815138</v>
+        <v>0.8569405149580871</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>2.245024725026977</v>
+        <v>2.07967582395347</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.807348131666951</v>
+        <v>1.789077677433805</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.068743620038442</v>
+        <v>1.081990950250203</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.403493296839384</v>
+        <v>4.336309759323199</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.055860145158227</v>
+        <v>5.030234502691891</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.043470888281668</v>
+        <v>4.980835962457676</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.886505677781913</v>
+        <v>8.005450020439463</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.188522408353982</v>
+        <v>2.095033957855034</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.201882051625645</v>
+        <v>5.191785532078029</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4.466664084211034</v>
+        <v>4.470510179876672</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.972109682783299</v>
+        <v>1.986850231014415</v>
       </c>
     </row>
     <row r="19">
